--- a/practica4/Informe.xlsx
+++ b/practica4/Informe.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unicancloud-my.sharepoint.com/personal/jlf799_alumnos_unican_es/Documents/UNICAN/SoftwareII/Practicas/GIT/IS2_2021/practica4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\IS2_2021\practica4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="299" documentId="11_AD4D2F04E46CFB4ACB3E20499DD7E574683EDF25" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{FF72672B-FB00-42CC-9B9D-50D199003367}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5D5779-4816-4A4A-9FC3-DE53AC85B81A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CajaNegra" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="41">
   <si>
     <t>Casos de prueba valido</t>
   </si>
@@ -61,9 +61,6 @@
     <t>Potencia</t>
   </si>
   <si>
-    <t>Tipo Seguro</t>
-  </si>
-  <si>
     <t>Siniestro</t>
   </si>
   <si>
@@ -127,9 +124,6 @@
     <t>(110,inf)</t>
   </si>
   <si>
-    <t>Seguro</t>
-  </si>
-  <si>
     <t>Valor</t>
   </si>
   <si>
@@ -160,10 +154,10 @@
     <t>cliente</t>
   </si>
   <si>
-    <t>Excepcion</t>
-  </si>
-  <si>
     <t>Se crea el cliente</t>
+  </si>
+  <si>
+    <t>Cobertura</t>
   </si>
 </sst>
 </file>
@@ -218,13 +212,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -506,22 +501,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M43"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -529,12 +525,12 @@
         <v>400</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -543,12 +539,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -560,19 +556,19 @@
         <v>7</v>
       </c>
       <c r="J3" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -586,25 +582,25 @@
         <v>1</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M4">
         <f>(D15+D10)</f>
         <v>600</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5">
         <v>1.2</v>
@@ -613,62 +609,62 @@
         <v>50</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M5">
         <v>800</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
       <c r="I6">
         <v>89</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M6">
         <f>(D$9*D$3+D$17)*D$22</f>
         <v>450</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="B7" s="4"/>
       <c r="I7">
         <v>90</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M7">
         <f>(D$9*D$4+D$17)*D$22</f>
         <v>465</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>0</v>
@@ -680,25 +676,25 @@
         <v>110</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M8">
         <f>1000*1.05+50</f>
         <v>1100</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
@@ -710,28 +706,28 @@
         <v>110</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M9">
         <f>(D$9*D$4+D$17)*D$22</f>
         <v>465</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
         <v>17</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
       </c>
       <c r="D10">
         <v>600</v>
@@ -740,25 +736,25 @@
         <v>111</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M10">
         <f>(D$9*D$5+D$17)*D$22</f>
         <v>510</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11">
         <v>1000</v>
@@ -767,33 +763,33 @@
         <v>120</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M11">
         <f>1200+50</f>
         <v>1250</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="4"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>0</v>
@@ -803,12 +799,12 @@
       </c>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -818,44 +814,45 @@
       </c>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="D16">
         <v>50</v>
       </c>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D17">
         <v>200</v>
       </c>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N18" s="6"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="1"/>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>0</v>
@@ -865,12 +862,12 @@
       </c>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
         <v>6</v>
@@ -881,12 +878,12 @@
       <c r="J21" s="4"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" t="s">
         <v>6</v>
@@ -896,25 +893,25 @@
       </c>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B30" t="s">
         <v>0</v>
@@ -926,21 +923,21 @@
         <v>7</v>
       </c>
       <c r="J30" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K30" t="s">
+        <v>32</v>
+      </c>
+      <c r="L30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>34</v>
       </c>
-      <c r="L30" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>36</v>
-      </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -949,50 +946,50 @@
         <v>100</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K31" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L31" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I32">
         <v>-1</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K32" t="s">
+        <v>38</v>
+      </c>
+      <c r="L32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>40</v>
-      </c>
-      <c r="L32" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>8</v>
       </c>
       <c r="B33" s="4"/>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K33" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L33" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>0</v>
@@ -1007,18 +1004,18 @@
         <v>6</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L34" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C35" t="s">
         <v>6</v>
@@ -1027,50 +1024,50 @@
         <v>100</v>
       </c>
       <c r="J35" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K35" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L35" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="C36" t="s">
         <v>17</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36" t="s">
-        <v>18</v>
       </c>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B38" s="4"/>
       <c r="J38" s="5"/>
       <c r="K38" s="4"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B39" s="4"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>0</v>
@@ -1079,23 +1076,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C41" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B42" s="4"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B43" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="M8" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -1105,7 +1105,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/practica4/Informe.xlsx
+++ b/practica4/Informe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unicancloud-my.sharepoint.com/personal/jlf799_alumnos_unican_es/Documents/UNICAN/SoftwareII/Practicas/GIT/IS2_2021/practica4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="157" documentId="13_ncr:1_{8F5D5779-4816-4A4A-9FC3-DE53AC85B81A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{48CEA70C-B360-4DAE-B4A1-E68D69FB9DAC}"/>
+  <xr:revisionPtr revIDLastSave="211" documentId="13_ncr:1_{8F5D5779-4816-4A4A-9FC3-DE53AC85B81A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{DA3AB260-78DE-4AB2-BB05-B97EAEAA8244}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CajaNegra" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="45">
   <si>
     <t>Casos de prueba valido</t>
   </si>
@@ -158,9 +158,6 @@
   </si>
   <si>
     <t>Menos de 1 año</t>
-  </si>
-  <si>
-    <t>CajaNegra</t>
   </si>
   <si>
     <t>Terceros</t>
@@ -214,7 +211,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -397,6 +394,76 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -404,7 +471,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -430,9 +497,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -455,12 +519,299 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="20">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -472,87 +823,6 @@
         </right>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -585,7 +855,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6F44FAC6-1820-411C-9B99-5322A5CB2F29}" name="Tabla1" displayName="Tabla1" ref="A16:E24" totalsRowShown="0" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{204CFFA2-9DEC-44BC-A781-790B467E387E}" name="Tabla3" displayName="Tabla3" ref="A13:D18" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="11" tableBorderDxfId="12" totalsRowBorderDxfId="10">
+  <autoFilter ref="A13:D18" xr:uid="{BF4D16C8-94ED-4CAC-BA0C-832CB522C66E}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{F3A53EF4-54E6-43D0-8961-0117880C3083}" name="Potencia" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{0D8FC3D7-32A8-4805-8EFD-24AB0B84C2FD}" name="Cobertura" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{BDB6A1E3-BBA2-4821-B159-76C770BD6F63}" name="Cliente" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{D1B74F0D-BF2C-4626-89CA-C96B6BC5CB1D}" name="Valor" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{E79E7BAD-E65E-4502-8538-01114772DD45}" name="Tabla7" displayName="Tabla7" ref="A3:D10" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="4">
+  <autoFilter ref="A3:D10" xr:uid="{6E0E4262-C09B-4A18-B967-1D55092799E5}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{E1357417-66E1-409B-87F8-8549A1A91BBB}" name="Columna1"/>
+    <tableColumn id="2" xr3:uid="{194FC58C-F454-488E-B002-20061A3A5559}" name="Clase de equivalencia" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{32825D27-6191-47C4-8F35-82BA5A084D30}" name="Casos de prueba valido" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{79E2A91F-0815-4F1C-9E98-C2C412517C84}" name="Clases de equivalencia invalidas" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6F44FAC6-1820-411C-9B99-5322A5CB2F29}" name="Tabla1" displayName="Tabla1" ref="A16:E24" totalsRowShown="0" tableBorderDxfId="19">
   <autoFilter ref="A16:E24" xr:uid="{1923F2F2-65C0-493E-A4F1-D7A492C64F7E}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{DCAF15E2-F810-46CC-9EFE-701833A92B01}" name="Potencia"/>
@@ -598,15 +894,15 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AECB73A9-0839-4303-B267-BF06D95C5D30}" name="Tabla2" displayName="Tabla2" ref="A2:E13" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="5">
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AECB73A9-0839-4303-B267-BF06D95C5D30}" name="Tabla2" displayName="Tabla2" ref="A2:E13" totalsRowShown="0" headerRowDxfId="18" tableBorderDxfId="17">
   <autoFilter ref="A2:E13" xr:uid="{24F7BFC2-CEF8-49B1-98BE-694BCE2057E5}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{25B04DF0-598C-4EE4-8BF6-D1350132AC98}" name="Columna1" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{83F2BC0E-5B55-45D8-A976-7CB32D307F7F}" name="Clase de equivalencia" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{25B04DF0-598C-4EE4-8BF6-D1350132AC98}" name="Columna1" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{83F2BC0E-5B55-45D8-A976-7CB32D307F7F}" name="Clase de equivalencia" dataDxfId="15"/>
     <tableColumn id="3" xr3:uid="{4E5B7AEE-D0D1-4B68-A145-9F9F060FCF89}" name="Casos de prueba valido"/>
-    <tableColumn id="4" xr3:uid="{F6525F03-DC02-482C-B5BE-BE56582E85E4}" name="Clases de equivalencia invalidas" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{94D784BC-9A84-491F-8C19-1B25D7965DFB}" name="VALOR" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{F6525F03-DC02-482C-B5BE-BE56582E85E4}" name="Clases de equivalencia invalidas" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{94D784BC-9A84-491F-8C19-1B25D7965DFB}" name="VALOR" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -875,41 +1171,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:L18"/>
+  <dimension ref="A3:L18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="18"/>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>44</v>
+      </c>
       <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="40" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>7</v>
       </c>
@@ -919,88 +1212,88 @@
       <c r="C4" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="24" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="24"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
+      <c r="D5" s="24"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="45" t="s">
         <v>39</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="24" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="25"/>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="26"/>
       <c r="B7" s="21" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="24" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="25"/>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="46"/>
       <c r="B8" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="21"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="D8" s="24"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="21"/>
       <c r="C9" s="22"/>
-      <c r="D9" s="21"/>
+      <c r="D9" s="24"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="24" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21" t="s">
+      <c r="C10" s="44"/>
+      <c r="D10" s="43" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="37" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="6">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="39">
         <v>100</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -1009,12 +1302,12 @@
       <c r="C14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="40" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="6">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="39">
         <v>-1</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -1023,12 +1316,12 @@
       <c r="C15" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="40" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="6">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="39">
         <v>0</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -1037,12 +1330,12 @@
       <c r="C16" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="40" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="6">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="39">
         <v>100</v>
       </c>
       <c r="B17" s="7" t="s">
@@ -1051,30 +1344,31 @@
       <c r="C17" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="40" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="6">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="36">
         <v>100</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="35" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A6:A8"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -1083,38 +1377,38 @@
   <dimension ref="A2:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A5"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="26"/>
-    <col min="2" max="2" width="20.21875" customWidth="1"/>
-    <col min="3" max="3" width="21.5546875" customWidth="1"/>
-    <col min="4" max="4" width="28.44140625" customWidth="1"/>
-    <col min="11" max="11" width="16.109375" customWidth="1"/>
-    <col min="12" max="12" width="15.77734375" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" style="25"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="4" max="4" width="28.42578125" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="33" t="s">
+    <row r="2" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="32" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="17" t="s">
@@ -1130,8 +1424,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="31"/>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="30"/>
       <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
@@ -1143,8 +1437,8 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="32"/>
+    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="31"/>
       <c r="B5" s="14" t="s">
         <v>4</v>
       </c>
@@ -1156,8 +1450,8 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
         <v>39</v>
       </c>
       <c r="B6" s="17" t="s">
@@ -1175,8 +1469,8 @@
       <c r="I6" s="5"/>
       <c r="O6" s="5"/>
     </row>
-    <row r="7" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="31"/>
+    <row r="7" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="30"/>
       <c r="B7" s="6" t="s">
         <v>16</v>
       </c>
@@ -1190,8 +1484,8 @@
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="32"/>
+    <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="31"/>
       <c r="B8" s="14" t="s">
         <v>15</v>
       </c>
@@ -1203,8 +1497,8 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="30" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="17" t="s">
@@ -1220,8 +1514,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="31"/>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="30"/>
       <c r="B10" s="6" t="s">
         <v>20</v>
       </c>
@@ -1234,8 +1528,8 @@
       </c>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="32"/>
+    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="31"/>
       <c r="B11" s="14" t="s">
         <v>19</v>
       </c>
@@ -1248,8 +1542,8 @@
       </c>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="30" t="s">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="17" t="s">
@@ -1266,29 +1560,29 @@
       </c>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="31"/>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="30"/>
       <c r="B13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="35">
+      <c r="E13" s="34">
         <v>0.75</v>
       </c>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="O14" s="4"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>7</v>
       </c>
@@ -1307,7 +1601,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
         <v>1</v>
       </c>
@@ -1326,7 +1620,7 @@
       </c>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="18">
         <v>50</v>
       </c>
@@ -1343,7 +1637,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="18">
         <v>89</v>
       </c>
@@ -1361,24 +1655,24 @@
         <v>450</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="29">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="28">
         <v>90</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="27" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="29" t="s">
+      <c r="D20" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="29">
+      <c r="E20" s="28">
         <v>622.5</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="18">
         <v>110</v>
       </c>
@@ -1396,7 +1690,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="18">
         <v>110</v>
       </c>
@@ -1414,7 +1708,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="18">
         <v>111</v>
       </c>
@@ -1432,7 +1726,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
         <v>120</v>
       </c>
